--- a/Таблица.xlsx
+++ b/Таблица.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Число запросов и дублей до и по" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Тестирование контроллеров." sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Нагрузочное тестирование." sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
   <si>
     <t xml:space="preserve">Число запросов и дублей до оптимизации. 6 продуктов в корзине.</t>
   </si>
@@ -62,6 +64,345 @@
   </si>
   <si>
     <t xml:space="preserve">Число запросов и дублей с использованием кеша. 6 продуктов в корзине</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'-d0 -r25 -c50' До оптимизации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адрес </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переходов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время теста, с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Транзакций в секунду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время отклика, с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">398.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'/orders/update/7/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">750.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'-d0 -r25 -c50' После оптимизации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">733.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">686.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">До оптимизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'-r50 -c50'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'-r25 -c100'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'-r17 -c150'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'-r12 -c200'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число переходов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доступность сервера, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">674.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">678.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запросов в секунду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пропускная способность, МБ/сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласованность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удачных транзакций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неудачных транзакций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самая долгая  транзакция, с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После оптимизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">773.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">825.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">813.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">690.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.16</t>
   </si>
 </sst>
 </file>
@@ -71,11 +412,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -97,15 +439,23 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +474,20 @@
         <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -182,6 +544,69 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -208,7 +633,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,6 +680,66 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -305,14 +790,14 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFAFD095"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -337,11 +822,11 @@
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="25.52"/>
@@ -679,4 +1164,752 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFF972F"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="20.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>13850</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>21400</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>15150</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>15150</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>12650</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>20150</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>12650</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>13850</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>21400</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>15150</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>15150</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>12650</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>20150</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="n">
+        <v>12650</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFA6A6"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="20.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="22" t="n">
+        <v>31450</v>
+      </c>
+      <c r="C3" s="22" t="n">
+        <v>31800</v>
+      </c>
+      <c r="D3" s="22" t="n">
+        <v>27791</v>
+      </c>
+      <c r="E3" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="22" t="n">
+        <v>31450</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>31800</v>
+      </c>
+      <c r="D10" s="22" t="n">
+        <v>27791</v>
+      </c>
+      <c r="E10" s="23" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22" t="n">
+        <v>358</v>
+      </c>
+      <c r="E11" s="23" t="n">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="22" t="n">
+        <v>31450</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>31800</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <v>26021</v>
+      </c>
+      <c r="E15" s="23" t="n">
+        <v>19650</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="22" t="n">
+        <v>31100</v>
+      </c>
+      <c r="C22" s="22" t="n">
+        <v>31400</v>
+      </c>
+      <c r="D22" s="22" t="n">
+        <v>25873</v>
+      </c>
+      <c r="E22" s="23" t="n">
+        <v>19650</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <v>540</v>
+      </c>
+      <c r="E23" s="23" t="n">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>